--- a/output/service.go_ms.json/mail.result.xlsx
+++ b/output/service.go_ms.json/mail.result.xlsx
@@ -523,12 +523,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>MODULE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -545,7 +545,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'start': '1970-01-01 00:00:00.000000', 'end': '1970-01-01 01:00:00.000000'}</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
@@ -631,7 +631,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MODULE</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>5</v>
@@ -685,12 +685,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>{'start': '1970-01-01 00:00:00.000000', 'end': '1970-01-01 01:00:00.000000'}</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
